--- a/results/DecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6823529411764706</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7326732673267325</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7106845513413507</v>
+        <v>0.7205882352941176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7179425837320574</v>
+        <v>0.7260765550239234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7075131042516016</v>
+        <v>0.7091393490096143</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7278057951120527</v>
+        <v>0.7411975542905335</v>
       </c>
       <c r="C6" t="n">
         <v>0.7096774193548387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7121122738459804</v>
+        <v>0.7114261479768182</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.696969696969697</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6478873239436619</v>
+        <v>0.6341463414634148</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.75</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7826086956521738</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7234848484848485</v>
+        <v>0.6730055658627088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7117224880382775</v>
+        <v>0.6784688995215311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7152480097979179</v>
+        <v>0.6728424015009382</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7283317041381557</v>
+        <v>0.6880124483811121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7275612534486958</v>
+        <v>0.6799158748411306</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7020833333333334</v>
+        <v>0.7367810760667903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7088516746411484</v>
+        <v>0.7442583732057416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6972093023255814</v>
+        <v>0.7300592128178336</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7199820788530465</v>
+        <v>0.7558152293175335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7013753438359589</v>
+        <v>0.733242697647592</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/DecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6966292134831461</v>
+        <v>0.7184466019417475</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7216494845360825</v>
+        <v>0.6506024096385543</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.6887464387464388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7260765550239234</v>
+        <v>0.684369202226345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7091393490096143</v>
+        <v>0.6845245057901509</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7411975542905335</v>
+        <v>0.68855497350121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7114261479768182</v>
+        <v>0.6863482744004518</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6341463414634148</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6730055658627088</v>
+        <v>0.6997607655502392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6784688995215311</v>
+        <v>0.6936456400742115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6728424015009382</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6880124483811121</v>
+        <v>0.7031692133559705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6799158748411306</v>
+        <v>0.6857825567502988</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.78125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7019927536231885</v>
+        <v>0.7348872950819672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6600478468899521</v>
+        <v>0.7126623376623377</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6612903225806452</v>
+        <v>0.7107655502392345</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7008337229234846</v>
+        <v>0.732394676537987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6819285466527922</v>
+        <v>0.7136080670885425</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.803921568627451</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7359943977591037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.7344619666048238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.7310584152689417</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.7386675100147585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.7307474641939838</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7126436781609196</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.75</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7367810760667903</v>
+        <v>0.6552631578947368</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7442583732057416</v>
+        <v>0.6505102040816326</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7300592128178336</v>
+        <v>0.6436781609195401</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7558152293175335</v>
+        <v>0.6582342954159592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.733242697647592</v>
+        <v>0.6424422197503399</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
